--- a/fixtures/testcases_inputs.xlsx
+++ b/fixtures/testcases_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swapnahs/Documents/GitHub/pythonDataValidationScipts/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF406D3-5229-1841-BDEA-797E387EA3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C41D85-6A5D-2F44-99BA-D52C7604D9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16380" xr2:uid="{65018035-123F-D84B-AD03-8D4E3A1D3DC5}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F79753-8968-5D40-886D-E7359670A5B8}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
